--- a/biology/Zoologie/Epidendrium_billeeanum/Epidendrium_billeeanum.xlsx
+++ b/biology/Zoologie/Epidendrium_billeeanum/Epidendrium_billeeanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scalaire jaune, Tourelle jaune, Tourelle des coraux
 Epidendrium billeeanum, communément nommé Scalaire jaune, Tourelle jaune ou Tourelle des coraux, est une espèce de mollusques gastéropodes marins ectoparasites de la famille des Epitoniidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Epidendrium billeeanum a été initialement décrite en 1965 par les malacologistes américaines Helen DuShane (d) (1907-2002) et Twila Bratcher (d) (1911-2006) sous le protonyme de Scalina billeeana[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Epidendrium billeeanum a été initialement décrite en 1965 par les malacologistes américaines Helen DuShane (d) (1907-2002) et Twila Bratcher (d) (1911-2006) sous le protonyme de Scalina billeeana,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Scalaire jaune est présent dans les eaux tropicales de l'Indo-Pacifique et de l'Océan Pacifique oriental, soit des côtes orientales de l'Afrique aux côtes occidentales du continent américain, incluant la Mer Rouge et Hawaï[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Scalaire jaune est présent dans les eaux tropicales de l'Indo-Pacifique et de l'Océan Pacifique oriental, soit des côtes orientales de l'Afrique aux côtes occidentales du continent américain, incluant la Mer Rouge et Hawaï.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa coquille jaune vif est hélicoïdale et mesure 1 cm de long. Il est fréquemment observable sur les coraux du genre Tubastrea dont il se nourrit[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa coquille jaune vif est hélicoïdale et mesure 1 cm de long. Il est fréquemment observable sur les coraux du genre Tubastrea dont il se nourrit.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Helen DuShane et Twila Bratcher, « A new Scalina from the Gulf of California », The Veliger, vol. 8,‎ 1965, p. 160-161 (ISSN 0042-3211, OCLC 1768969, lire en ligne)</t>
         </is>
